--- a/G05_1/项目配置状态表.xlsx
+++ b/G05_1/项目配置状态表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QQ\1253293121\FileRecv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>文档编号：</t>
   </si>
@@ -30,9 +35,6 @@
     <t>作成时间：</t>
   </si>
   <si>
-    <t>项目</t>
-  </si>
-  <si>
     <t>工作产品名称</t>
   </si>
   <si>
@@ -45,15 +47,9 @@
     <t>规模（KB）</t>
   </si>
   <si>
-    <t>保管人</t>
-  </si>
-  <si>
     <t>负责人</t>
   </si>
   <si>
-    <t>需求开发</t>
-  </si>
-  <si>
     <t>项目章程</t>
   </si>
   <si>
@@ -66,15 +62,9 @@
     <t>软件需求规格说明书</t>
   </si>
   <si>
-    <t>需求管理</t>
-  </si>
-  <si>
     <t>需求变更影响分析报告</t>
   </si>
   <si>
-    <t>发布</t>
-  </si>
-  <si>
     <t>用户手册</t>
   </si>
   <si>
@@ -82,13 +72,315 @@
   </si>
   <si>
     <t>项目总结报告</t>
+  </si>
+  <si>
+    <t>王家南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>..G05_1\受控文档\项目章程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王浩楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敏星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>..G05_1\受控文档\需求工程项目计划</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敏星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛雅文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>..G05_1\受控文档\前景与范围文档</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...G05_1\受控文档\用户\用户手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛雅文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员用例文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...G05_1\受控文档\测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\用例文档\管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茹敏杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茹敏杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师用例文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\用例文档\教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生用例文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\用例文档\学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客用例文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\用例文档\游客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\用例图</t>
+  </si>
+  <si>
+    <t>G05_1\受控文档\用例图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\用例图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王家南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王家南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...G05_1\受控文档\需求规格说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CB规章</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\需求变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求变更申请报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王敏星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求工程项目计划-甘特图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\项目干特图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茹敏杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设计与实现计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\系统设计与实现计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王家南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统安装部署计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\系统安装部署计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王浩楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王家楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\前景与范围文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\前景与范围文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前景与范围文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\可行性分析报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王家楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性研究报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目WBS工作分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求WBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求和项目WBS表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\WBS工作分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G05_1\受控文档\WBS工作分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +391,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -125,21 +425,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -178,6 +490,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -441,180 +756,601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>95</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>768</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>147</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>23911</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9"/>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12"/>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>1375</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>1596</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>1220</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>92</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>178</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>222</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>180</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>125</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21">
+        <v>72</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>66</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <v>535</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <v>83</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>98</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26">
+        <v>501</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>115</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29">
+        <v>83</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30">
+        <v>1552</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31">
+        <v>44</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32">
+        <v>48</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33">
+        <v>41</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34">
+        <v>77</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+  <mergeCells count="17">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -625,6 +1361,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -638,6 +1377,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/G05_1/项目配置状态表.xlsx
+++ b/G05_1/项目配置状态表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QQ\1253293121\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档存储\GitHub\PRD-2016-G05\G05\G05_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,9 +47,6 @@
     <t>规模（KB）</t>
   </si>
   <si>
-    <t>负责人</t>
-  </si>
-  <si>
     <t>项目章程</t>
   </si>
   <si>
@@ -370,6 +367,10 @@
   </si>
   <si>
     <t>G05_1\受控文档\WBS工作分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,16 +442,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -801,535 +802,543 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5"/>
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>768</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5"/>
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>147</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5"/>
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>23911</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5"/>
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9"/>
       <c r="F9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12"/>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>1375</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E14">
         <v>1596</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E15">
         <v>1220</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E16">
         <v>92</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>43</v>
+      <c r="D17" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E17">
         <v>178</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>44</v>
+      <c r="D18" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E18">
         <v>222</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>44</v>
+      <c r="D19" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E19">
         <v>180</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>125</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="E21">
         <v>72</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>49</v>
+      <c r="D22" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E22">
         <v>66</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E23">
         <v>535</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="E24">
         <v>83</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="E25">
         <v>98</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E26">
         <v>501</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="E27">
         <v>14</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>66</v>
+      <c r="D28" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="E28">
         <v>115</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>68</v>
+      <c r="D29" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E29">
         <v>83</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="E30">
         <v>1552</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>77</v>
+      <c r="D31" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E31">
         <v>44</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>77</v>
+      <c r="D32" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E32">
         <v>48</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>77</v>
+      <c r="D33" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E33">
         <v>41</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>78</v>
+      <c r="D34" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E34">
         <v>77</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A2:D2"/>
@@ -1339,14 +1348,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
